--- a/integration/计量支付/清单支付报表/清单支付报表.xlsx
+++ b/integration/计量支付/清单支付报表/清单支付报表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matoa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Nodejs\vendor-report\integration\计量支付\清单支付报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E74061-D809-41ED-86B8-084938378AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5D57E9-10AD-434F-9AD7-89E31770CF40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="7890" xr2:uid="{4DDDF283-1337-4056-9EE3-E548525BD33F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>承包单位：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原合同数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更后数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,7 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业监理工程师：</t>
+    <t>原数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理工程师：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,17 +237,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,186 +581,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242AAC7E-0703-4DD1-B1BD-F62C8E5C538A}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="6"/>
-    <col min="8" max="8" width="8.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="6" customWidth="1"/>
     <col min="13" max="16384" width="7.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5" t="s">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -772,21 +783,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -800,65 +811,65 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -872,52 +883,37 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>